--- a/pp/tracesV2/AnalyseAlgoLevenshtein.xlsx
+++ b/pp/tracesV2/AnalyseAlgoLevenshtein.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmuratet\Documents\Data\INSHEA\Recherche\Projets\EnCours\ProgAndPlay\StageYufei\SystemFeedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmuratet\Documents\Data\INSHEA\Recherche\Projets\EnCours\ProgAndPlay\VersionLIP6-GIT\ProgAndPlay\pp\tracesV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +25,194 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mathieu MURATET</author>
+  </authors>
+  <commentList>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile :
+c
+l</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile :
+c
+l</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile :
+c
+l</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile :
+l</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile :
+l</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathieu MURATET:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pile:</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="113">
   <si>
     <t>v</t>
   </si>
@@ -181,12 +369,2159 @@
   <si>
     <t xml:space="preserve">si on ferme un g alors que la tête de la pile est un h cela veut dire qu'on a une superposition décallée des séquences. Donc on force la fermeture du g ouvert, pour cela on passe en optionnelle toutes les traces comprises entre l'ouverture du g et l'ouverture du h, on déplace l'ouverture du h avant l'ouverture du g et on supprime le g de la pile. On se retrouve donc avec un h en tête de pile prêt pour recevoir la prochaine fermeture du h </t>
   </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>l+</t>
+  </si>
+  <si>
+    <t>c+</t>
+  </si>
+  <si>
+    <t>l-</t>
+  </si>
+  <si>
+    <t>c-</t>
+  </si>
+  <si>
+    <t>d+</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>d-</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>=&gt; tête de pile "c" et action à dépiler "l" =&gt; chercher le premier "d" ou "l" dispo dans la pile, mettre en option tous les Call entre c-&gt;trace et (d|l)-&gt;trace</t>
+  </si>
+  <si>
+    <t>Quid si un double cc</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>A [B C D] vs [[A B C]] D</t>
+  </si>
+  <si>
+    <r>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[*A [B] *C]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mettre en option un Call aligné en diagonale si dans la pile on n'a pas empilé le même nombre de "l" et "c"</t>
+  </si>
+  <si>
+    <t>[[*A] B [*C]] =&gt; OK</t>
+  </si>
+  <si>
+    <t>*B</t>
+  </si>
+  <si>
+    <t>[[*A [*B]] C] =&gt; OK</t>
+  </si>
+  <si>
+    <t>*A[[*AB]C]</t>
+  </si>
+  <si>
+    <t>Principe : Action x- et tête de la pile son complément =&gt; chercher dans la pile le premier "x" ou "d", noté REF. Si on en trouve un, mettre tout ce qui est entre REF et la tête de la pile comme optionnel. Si on n'en trouve pas noter tous les prochains ajouts comme optionnel tant que cette tête de pile n'a pas été traitée (Attention il est possible que d'autres imbrications soient empilées par dessus, c'est donc vraiment cette action qui est visée). Retirer le x de la pile (ce n'est donc pas la tête).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +2548,51 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +2602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +2624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +2674,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,16 +3021,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH148"/>
+  <dimension ref="A1:AI148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="S82" sqref="S82"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
-    <col min="2" max="29" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="14" width="3.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2017,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>23</v>
       </c>
@@ -2052,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>28</v>
       </c>
@@ -2087,13 +4551,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,8 +4576,32 @@
       <c r="H69" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2135,8 +4623,50 @@
       <c r="H70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R70" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W70" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y70" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA70" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>2</v>
       </c>
@@ -2158,8 +4688,27 @@
       <c r="H71" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" s="20"/>
+      <c r="W71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -2181,8 +4730,44 @@
       <c r="H72" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +4789,50 @@
       <c r="H73" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U73" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2227,8 +4854,26 @@
       <c r="H74" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y74" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z74" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>4</v>
       </c>
@@ -2250,11 +4895,95 @@
       <c r="H75" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z75" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U76" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD76" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +5015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
@@ -2314,8 +5043,11 @@
       <c r="J78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>23</v>
       </c>
@@ -2449,6 +5181,15 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
+      <c r="L86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -2473,6 +5214,21 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
+      <c r="L87" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P87" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -2521,6 +5277,18 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
+      <c r="L89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
@@ -2545,6 +5313,21 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
+      <c r="L90" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
@@ -2706,6 +5489,15 @@
       <c r="G99" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="L99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
@@ -2726,6 +5518,21 @@
       <c r="G100" s="1">
         <v>3</v>
       </c>
+      <c r="L100" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="21" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
@@ -2746,6 +5553,12 @@
       <c r="G101" s="1">
         <v>2</v>
       </c>
+      <c r="N101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
@@ -2766,6 +5579,18 @@
       <c r="G102" s="1">
         <v>1</v>
       </c>
+      <c r="L102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
@@ -2785,6 +5610,21 @@
       </c>
       <c r="G103" s="1">
         <v>1</v>
+      </c>
+      <c r="L103" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -3449,12 +6289,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="K129" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3490,8 +6330,10 @@
       <c r="AG131" s="13"/>
       <c r="AH131" s="13"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -3526,18 +6368,36 @@
       <c r="AG132" s="13"/>
       <c r="AH132" s="13"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="C133" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
@@ -3556,106 +6416,213 @@
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
       <c r="AC133" s="7"/>
-      <c r="AD133" s="13"/>
+      <c r="AD133" s="7"/>
       <c r="AE133" s="13"/>
       <c r="AF133" s="13"/>
       <c r="AG133" s="13"/>
       <c r="AH133" s="13"/>
-    </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI133" s="13"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
+      <c r="B134" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="7">
+        <v>2</v>
+      </c>
+      <c r="F134" s="7">
+        <v>3</v>
+      </c>
+      <c r="G134" s="7">
+        <v>4</v>
+      </c>
+      <c r="H134" s="7">
+        <v>5</v>
+      </c>
+      <c r="I134" s="7">
+        <v>5</v>
+      </c>
+      <c r="J134" s="7">
+        <v>5</v>
+      </c>
+      <c r="K134" s="7">
+        <v>6</v>
+      </c>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
+      <c r="O134" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
+      <c r="Q134" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R134" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
-      <c r="V134" s="7"/>
-      <c r="W134" s="7"/>
-      <c r="X134" s="7"/>
+      <c r="V134" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W134" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X134" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
       <c r="AA134" s="7"/>
       <c r="AB134" s="7"/>
       <c r="AC134" s="7"/>
-      <c r="AD134" s="13"/>
+      <c r="AD134" s="7"/>
       <c r="AE134" s="13"/>
       <c r="AF134" s="13"/>
       <c r="AG134" s="13"/>
       <c r="AH134" s="13"/>
-    </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI134" s="13"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
+      <c r="B135" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="7">
+        <v>2</v>
+      </c>
+      <c r="F135" s="7">
+        <v>2</v>
+      </c>
+      <c r="G135" s="7">
+        <v>3</v>
+      </c>
+      <c r="H135" s="7">
+        <v>4</v>
+      </c>
+      <c r="I135" s="7">
+        <v>4</v>
+      </c>
+      <c r="J135" s="7">
+        <v>4</v>
+      </c>
+      <c r="K135" s="7">
+        <v>5</v>
+      </c>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7"/>
-      <c r="T135" s="7"/>
-      <c r="U135" s="7"/>
-      <c r="V135" s="7"/>
-      <c r="W135" s="7"/>
-      <c r="X135" s="7"/>
-      <c r="Y135" s="7"/>
+      <c r="O135" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P135" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q135" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R135" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S135" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T135" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U135" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="V135" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W135" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X135" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y135" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="Z135" s="7"/>
       <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
       <c r="AC135" s="7"/>
-      <c r="AD135" s="13"/>
+      <c r="AD135" s="7"/>
       <c r="AE135" s="13"/>
       <c r="AF135" s="13"/>
       <c r="AG135" s="13"/>
       <c r="AH135" s="13"/>
-    </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI135" s="13"/>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
+      <c r="B136" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="7">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>2</v>
+      </c>
+      <c r="G136" s="7">
+        <v>3</v>
+      </c>
+      <c r="H136" s="7">
+        <v>4</v>
+      </c>
+      <c r="I136" s="7">
+        <v>4</v>
+      </c>
+      <c r="J136" s="7">
+        <v>4</v>
+      </c>
+      <c r="K136" s="7">
+        <v>5</v>
+      </c>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
+      <c r="N136" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="O136" s="7"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-      <c r="S136" s="7"/>
-      <c r="T136" s="7"/>
-      <c r="U136" s="7"/>
+      <c r="R136" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S136" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T136" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U136" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="V136" s="7"/>
       <c r="W136" s="7"/>
       <c r="X136" s="7"/>
@@ -3664,35 +6631,68 @@
       <c r="AA136" s="7"/>
       <c r="AB136" s="7"/>
       <c r="AC136" s="7"/>
-      <c r="AD136" s="13"/>
+      <c r="AD136" s="7"/>
       <c r="AE136" s="13"/>
       <c r="AF136" s="13"/>
       <c r="AG136" s="13"/>
       <c r="AH136" s="13"/>
-    </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI136" s="13"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="B137" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7">
+        <v>3</v>
+      </c>
+      <c r="D137" s="7">
+        <v>2</v>
+      </c>
+      <c r="E137" s="7">
+        <v>2</v>
+      </c>
+      <c r="F137" s="7">
+        <v>2</v>
+      </c>
+      <c r="G137" s="2">
+        <v>2</v>
+      </c>
+      <c r="H137" s="7">
+        <v>3</v>
+      </c>
+      <c r="I137" s="7">
+        <v>3</v>
+      </c>
+      <c r="J137" s="7">
+        <v>3</v>
+      </c>
+      <c r="K137" s="7">
+        <v>4</v>
+      </c>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
+      <c r="N137" s="24"/>
       <c r="O137" s="7"/>
       <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7"/>
-      <c r="T137" s="7"/>
-      <c r="U137" s="7"/>
-      <c r="V137" s="7"/>
+      <c r="Q137" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R137" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S137" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T137" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U137" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V137" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W137" s="7"/>
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
@@ -3700,96 +6700,197 @@
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
       <c r="AC137" s="7"/>
-      <c r="AD137" s="13"/>
+      <c r="AD137" s="7"/>
       <c r="AE137" s="13"/>
       <c r="AF137" s="13"/>
       <c r="AG137" s="13"/>
       <c r="AH137" s="13"/>
-    </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI137" s="13"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="7">
+        <v>4</v>
+      </c>
+      <c r="D138" s="7">
+        <v>3</v>
+      </c>
+      <c r="E138" s="7">
+        <v>3</v>
+      </c>
+      <c r="F138" s="7">
+        <v>3</v>
+      </c>
+      <c r="G138" s="7">
+        <v>3</v>
+      </c>
+      <c r="H138" s="2">
+        <v>2</v>
+      </c>
+      <c r="I138" s="2">
+        <v>2</v>
+      </c>
+      <c r="J138" s="2">
+        <v>2</v>
+      </c>
+      <c r="K138" s="7">
+        <v>3</v>
+      </c>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="7"/>
-      <c r="S138" s="7"/>
-      <c r="T138" s="7"/>
-      <c r="U138" s="7"/>
-      <c r="V138" s="7"/>
-      <c r="W138" s="7"/>
+      <c r="N138" s="24"/>
+      <c r="O138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V138" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W138" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="7"/>
       <c r="AB138" s="7"/>
       <c r="AC138" s="7"/>
-      <c r="AD138" s="13"/>
+      <c r="AD138" s="7"/>
       <c r="AE138" s="13"/>
       <c r="AF138" s="13"/>
       <c r="AG138" s="13"/>
       <c r="AH138" s="13"/>
-    </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI138" s="13"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
+      <c r="B139" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="11">
+        <v>5</v>
+      </c>
+      <c r="D139" s="7">
+        <v>4</v>
+      </c>
+      <c r="E139" s="7">
+        <v>4</v>
+      </c>
+      <c r="F139" s="7">
+        <v>4</v>
+      </c>
+      <c r="G139" s="7">
+        <v>4</v>
+      </c>
+      <c r="H139" s="7">
+        <v>3</v>
+      </c>
+      <c r="I139" s="7">
+        <v>3</v>
+      </c>
+      <c r="J139" s="7">
+        <v>3</v>
+      </c>
+      <c r="K139" s="2">
+        <v>2</v>
+      </c>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="7"/>
-      <c r="R139" s="7"/>
-      <c r="S139" s="7"/>
-      <c r="T139" s="7"/>
-      <c r="U139" s="7"/>
-      <c r="V139" s="7"/>
-      <c r="W139" s="7"/>
+      <c r="N139" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O139" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P139" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q139" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R139" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S139" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T139" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U139" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V139" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="W139" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
       <c r="AA139" s="7"/>
       <c r="AB139" s="7"/>
       <c r="AC139" s="7"/>
-      <c r="AD139" s="13"/>
+      <c r="AD139" s="7"/>
       <c r="AE139" s="13"/>
       <c r="AF139" s="13"/>
       <c r="AG139" s="13"/>
       <c r="AH139" s="13"/>
-    </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI139" s="13"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="B140" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="7">
+        <v>5</v>
+      </c>
+      <c r="D140" s="7">
+        <v>4</v>
+      </c>
+      <c r="E140" s="7">
+        <v>4</v>
+      </c>
+      <c r="F140" s="7">
+        <v>4</v>
+      </c>
+      <c r="G140" s="7">
+        <v>4</v>
+      </c>
+      <c r="H140" s="7">
+        <v>3</v>
+      </c>
+      <c r="I140" s="7">
+        <v>3</v>
+      </c>
+      <c r="J140" s="7">
+        <v>3</v>
+      </c>
+      <c r="K140" s="2">
+        <v>2</v>
+      </c>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
@@ -3808,13 +6909,14 @@
       <c r="AA140" s="7"/>
       <c r="AB140" s="7"/>
       <c r="AC140" s="7"/>
-      <c r="AD140" s="13"/>
+      <c r="AD140" s="7"/>
       <c r="AE140" s="13"/>
       <c r="AF140" s="13"/>
       <c r="AG140" s="13"/>
       <c r="AH140" s="13"/>
-    </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI140" s="13"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -3850,7 +6952,7 @@
       <c r="AG141" s="13"/>
       <c r="AH141" s="13"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -3886,7 +6988,7 @@
       <c r="AG142" s="13"/>
       <c r="AH142" s="13"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -3922,7 +7024,7 @@
       <c r="AG143" s="13"/>
       <c r="AH143" s="13"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="7"/>
       <c r="C144" s="11"/>
@@ -4103,7 +7205,6088 @@
       <c r="AH148" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N136:N138"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI153"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
+    <col min="2" max="14" width="3.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="8" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+    </row>
+    <row r="9" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+    </row>
+    <row r="10" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+    </row>
+    <row r="11" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+    </row>
+    <row r="12" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+    </row>
+    <row r="13" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+    </row>
+    <row r="15" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+    </row>
+    <row r="16" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+    </row>
+    <row r="17" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+    </row>
+    <row r="18" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+    </row>
+    <row r="19" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+    </row>
+    <row r="21" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+    </row>
+    <row r="22" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+    </row>
+    <row r="23" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+    </row>
+    <row r="24" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+    </row>
+    <row r="25" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+    </row>
+    <row r="26" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+    </row>
+    <row r="27" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+    </row>
+    <row r="28" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+    </row>
+    <row r="29" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+    </row>
+    <row r="30" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+    </row>
+    <row r="32" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+    </row>
+    <row r="33" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+    </row>
+    <row r="34" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+    </row>
+    <row r="35" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+    </row>
+    <row r="36" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+    </row>
+    <row r="38" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+    </row>
+    <row r="39" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+    </row>
+    <row r="40" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+    </row>
+    <row r="41" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+    </row>
+    <row r="42" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+    </row>
+    <row r="43" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+    </row>
+    <row r="44" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+    </row>
+    <row r="45" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+    </row>
+    <row r="46" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+    </row>
+    <row r="48" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+    </row>
+    <row r="49" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+    </row>
+    <row r="50" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+    </row>
+    <row r="51" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+    </row>
+    <row r="52" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+    </row>
+    <row r="54" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+    </row>
+    <row r="55" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+    </row>
+    <row r="56" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+    </row>
+    <row r="57" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+    </row>
+    <row r="58" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+    </row>
+    <row r="59" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+    </row>
+    <row r="60" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+    </row>
+    <row r="61" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+    </row>
+    <row r="62" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+    </row>
+    <row r="63" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+    </row>
+    <row r="64" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+    </row>
+    <row r="65" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+    </row>
+    <row r="67" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+    </row>
+    <row r="68" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+    </row>
+    <row r="69" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R75" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U75" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W75" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y75" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA75" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" s="20"/>
+      <c r="W76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U78" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="2">
+        <v>2</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z79" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z80" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H81" s="7"/>
+      <c r="L81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U81" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD81" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H87" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <v>2</v>
+      </c>
+      <c r="G92" s="7">
+        <v>2</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P92" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2</v>
+      </c>
+      <c r="F93" s="7">
+        <v>2</v>
+      </c>
+      <c r="G93" s="7">
+        <v>2</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2</v>
+      </c>
+      <c r="E94" s="7">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="7">
+        <v>2</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="7">
+        <v>2</v>
+      </c>
+      <c r="E95" s="7">
+        <v>2</v>
+      </c>
+      <c r="F95" s="7">
+        <v>2</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+    </row>
+    <row r="102" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="F102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+    </row>
+    <row r="103" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+    </row>
+    <row r="104" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+    </row>
+    <row r="105" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P105" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+    </row>
+    <row r="106" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+      <c r="AG106"/>
+      <c r="AH106"/>
+      <c r="AI106"/>
+    </row>
+    <row r="107" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+    </row>
+    <row r="108" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+    </row>
+    <row r="109" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+    </row>
+    <row r="111" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="C111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111"/>
+      <c r="AI111"/>
+    </row>
+    <row r="112" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+    </row>
+    <row r="113" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+    </row>
+    <row r="114" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="H114" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+    </row>
+    <row r="115" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+    </row>
+    <row r="116" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="E116" s="10"/>
+      <c r="H116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+    </row>
+    <row r="117" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+      <c r="AF117"/>
+      <c r="AG117"/>
+      <c r="AH117"/>
+      <c r="AI117"/>
+    </row>
+    <row r="118" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+      <c r="AF118"/>
+      <c r="AG118"/>
+      <c r="AH118"/>
+      <c r="AI118"/>
+    </row>
+    <row r="119" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+      <c r="AF119"/>
+      <c r="AG119"/>
+      <c r="AH119"/>
+      <c r="AI119"/>
+    </row>
+    <row r="120" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+      <c r="AF120"/>
+      <c r="AG120"/>
+      <c r="AH120"/>
+      <c r="AI120"/>
+    </row>
+    <row r="121" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+      <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121"/>
+      <c r="AI121"/>
+    </row>
+    <row r="122" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1</v>
+      </c>
+      <c r="E122" s="7">
+        <v>2</v>
+      </c>
+      <c r="F122" s="7">
+        <v>3</v>
+      </c>
+      <c r="G122" s="7">
+        <v>3</v>
+      </c>
+      <c r="H122" s="7">
+        <v>4</v>
+      </c>
+      <c r="I122" s="7">
+        <v>4</v>
+      </c>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="AD122"/>
+      <c r="AE122"/>
+      <c r="AF122"/>
+      <c r="AG122"/>
+      <c r="AH122"/>
+      <c r="AI122"/>
+    </row>
+    <row r="123" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7">
+        <v>2</v>
+      </c>
+      <c r="G123" s="7">
+        <v>2</v>
+      </c>
+      <c r="H123" s="7">
+        <v>3</v>
+      </c>
+      <c r="I123" s="7">
+        <v>3</v>
+      </c>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="AD123"/>
+      <c r="AE123"/>
+      <c r="AF123"/>
+      <c r="AG123"/>
+      <c r="AH123"/>
+      <c r="AI123"/>
+    </row>
+    <row r="124" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="7">
+        <v>2</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7">
+        <v>1</v>
+      </c>
+      <c r="H124" s="7">
+        <v>2</v>
+      </c>
+      <c r="I124" s="7">
+        <v>2</v>
+      </c>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+      <c r="AF124"/>
+      <c r="AG124"/>
+      <c r="AH124"/>
+      <c r="AI124"/>
+    </row>
+    <row r="125" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="7">
+        <v>3</v>
+      </c>
+      <c r="D125" s="7">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
+        <v>1</v>
+      </c>
+      <c r="H125" s="7">
+        <v>2</v>
+      </c>
+      <c r="I125" s="7">
+        <v>2</v>
+      </c>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+      <c r="AF125"/>
+      <c r="AG125"/>
+      <c r="AH125"/>
+      <c r="AI125"/>
+    </row>
+    <row r="126" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="11">
+        <v>4</v>
+      </c>
+      <c r="D126" s="7">
+        <v>3</v>
+      </c>
+      <c r="E126" s="7">
+        <v>2</v>
+      </c>
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7">
+        <v>1</v>
+      </c>
+      <c r="H126" s="7">
+        <v>2</v>
+      </c>
+      <c r="I126" s="7">
+        <v>2</v>
+      </c>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+      <c r="AF126"/>
+      <c r="AG126"/>
+      <c r="AH126"/>
+      <c r="AI126"/>
+    </row>
+    <row r="127" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="7">
+        <v>4</v>
+      </c>
+      <c r="D127" s="7">
+        <v>3</v>
+      </c>
+      <c r="E127" s="7">
+        <v>2</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1</v>
+      </c>
+      <c r="H127" s="7">
+        <v>2</v>
+      </c>
+      <c r="I127" s="7">
+        <v>2</v>
+      </c>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+      <c r="AF127"/>
+      <c r="AG127"/>
+      <c r="AH127"/>
+      <c r="AI127"/>
+    </row>
+    <row r="128" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="7">
+        <v>4</v>
+      </c>
+      <c r="D128" s="7">
+        <v>3</v>
+      </c>
+      <c r="E128" s="7">
+        <v>2</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7">
+        <v>1</v>
+      </c>
+      <c r="H128" s="7">
+        <v>2</v>
+      </c>
+      <c r="I128" s="7">
+        <v>2</v>
+      </c>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+      <c r="AF128"/>
+      <c r="AG128"/>
+      <c r="AH128"/>
+      <c r="AI128"/>
+    </row>
+    <row r="129" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="7">
+        <v>4</v>
+      </c>
+      <c r="D129" s="7">
+        <v>3</v>
+      </c>
+      <c r="E129" s="7">
+        <v>2</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>1</v>
+      </c>
+      <c r="H129" s="7">
+        <v>2</v>
+      </c>
+      <c r="I129" s="7">
+        <v>2</v>
+      </c>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+      <c r="AF129"/>
+      <c r="AG129"/>
+      <c r="AH129"/>
+      <c r="AI129"/>
+    </row>
+    <row r="130" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="11">
+        <v>5</v>
+      </c>
+      <c r="D130" s="7">
+        <v>4</v>
+      </c>
+      <c r="E130" s="7">
+        <v>3</v>
+      </c>
+      <c r="F130" s="7">
+        <v>2</v>
+      </c>
+      <c r="G130" s="7">
+        <v>2</v>
+      </c>
+      <c r="H130" s="2">
+        <v>1</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+      <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AH130"/>
+      <c r="AI130"/>
+    </row>
+    <row r="132" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="D132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+    </row>
+    <row r="133" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD133"/>
+      <c r="AE133"/>
+      <c r="AF133"/>
+      <c r="AG133"/>
+      <c r="AH133"/>
+      <c r="AI133"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="K134" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
+      <c r="Y136" s="7"/>
+      <c r="Z136" s="7"/>
+      <c r="AA136" s="7"/>
+      <c r="AB136" s="7"/>
+      <c r="AC136" s="7"/>
+      <c r="AD136" s="13"/>
+      <c r="AE136" s="13"/>
+      <c r="AF136" s="13"/>
+      <c r="AG136" s="13"/>
+      <c r="AH136" s="13"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="7"/>
+      <c r="AA137" s="7"/>
+      <c r="AB137" s="7"/>
+      <c r="AC137" s="7"/>
+      <c r="AD137" s="13"/>
+      <c r="AE137" s="13"/>
+      <c r="AF137" s="13"/>
+      <c r="AG137" s="13"/>
+      <c r="AH137" s="13"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
+      <c r="W138" s="7"/>
+      <c r="X138" s="7"/>
+      <c r="Y138" s="7"/>
+      <c r="Z138" s="7"/>
+      <c r="AA138" s="7"/>
+      <c r="AB138" s="7"/>
+      <c r="AC138" s="7"/>
+      <c r="AD138" s="7"/>
+      <c r="AE138" s="13"/>
+      <c r="AF138" s="13"/>
+      <c r="AG138" s="13"/>
+      <c r="AH138" s="13"/>
+      <c r="AI138" s="13"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
+      <c r="E139" s="7">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7">
+        <v>3</v>
+      </c>
+      <c r="G139" s="7">
+        <v>4</v>
+      </c>
+      <c r="H139" s="7">
+        <v>5</v>
+      </c>
+      <c r="I139" s="7">
+        <v>5</v>
+      </c>
+      <c r="J139" s="7">
+        <v>5</v>
+      </c>
+      <c r="K139" s="7">
+        <v>6</v>
+      </c>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R139" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S139" s="7"/>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W139" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X139" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y139" s="7"/>
+      <c r="Z139" s="7"/>
+      <c r="AA139" s="7"/>
+      <c r="AB139" s="7"/>
+      <c r="AC139" s="7"/>
+      <c r="AD139" s="7"/>
+      <c r="AE139" s="13"/>
+      <c r="AF139" s="13"/>
+      <c r="AG139" s="13"/>
+      <c r="AH139" s="13"/>
+      <c r="AI139" s="13"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7">
+        <v>2</v>
+      </c>
+      <c r="F140" s="7">
+        <v>2</v>
+      </c>
+      <c r="G140" s="7">
+        <v>3</v>
+      </c>
+      <c r="H140" s="7">
+        <v>4</v>
+      </c>
+      <c r="I140" s="7">
+        <v>4</v>
+      </c>
+      <c r="J140" s="7">
+        <v>4</v>
+      </c>
+      <c r="K140" s="7">
+        <v>5</v>
+      </c>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P140" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q140" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R140" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S140" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T140" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U140" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="V140" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X140" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y140" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z140" s="7"/>
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
+      <c r="AC140" s="7"/>
+      <c r="AD140" s="7"/>
+      <c r="AE140" s="13"/>
+      <c r="AF140" s="13"/>
+      <c r="AG140" s="13"/>
+      <c r="AH140" s="13"/>
+      <c r="AI140" s="13"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="7">
+        <v>2</v>
+      </c>
+      <c r="D141" s="7">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>2</v>
+      </c>
+      <c r="G141" s="7">
+        <v>3</v>
+      </c>
+      <c r="H141" s="7">
+        <v>4</v>
+      </c>
+      <c r="I141" s="7">
+        <v>4</v>
+      </c>
+      <c r="J141" s="7">
+        <v>4</v>
+      </c>
+      <c r="K141" s="7">
+        <v>5</v>
+      </c>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V141" s="7"/>
+      <c r="W141" s="7"/>
+      <c r="X141" s="7"/>
+      <c r="Y141" s="7"/>
+      <c r="Z141" s="7"/>
+      <c r="AA141" s="7"/>
+      <c r="AB141" s="7"/>
+      <c r="AC141" s="7"/>
+      <c r="AD141" s="7"/>
+      <c r="AE141" s="13"/>
+      <c r="AF141" s="13"/>
+      <c r="AG141" s="13"/>
+      <c r="AH141" s="13"/>
+      <c r="AI141" s="13"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="7">
+        <v>3</v>
+      </c>
+      <c r="D142" s="7">
+        <v>2</v>
+      </c>
+      <c r="E142" s="7">
+        <v>2</v>
+      </c>
+      <c r="F142" s="7">
+        <v>2</v>
+      </c>
+      <c r="G142" s="2">
+        <v>2</v>
+      </c>
+      <c r="H142" s="7">
+        <v>3</v>
+      </c>
+      <c r="I142" s="7">
+        <v>3</v>
+      </c>
+      <c r="J142" s="7">
+        <v>3</v>
+      </c>
+      <c r="K142" s="7">
+        <v>4</v>
+      </c>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W142" s="7"/>
+      <c r="X142" s="7"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="7"/>
+      <c r="AA142" s="7"/>
+      <c r="AB142" s="7"/>
+      <c r="AC142" s="7"/>
+      <c r="AD142" s="7"/>
+      <c r="AE142" s="13"/>
+      <c r="AF142" s="13"/>
+      <c r="AG142" s="13"/>
+      <c r="AH142" s="13"/>
+      <c r="AI142" s="13"/>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="7">
+        <v>4</v>
+      </c>
+      <c r="D143" s="7">
+        <v>3</v>
+      </c>
+      <c r="E143" s="7">
+        <v>3</v>
+      </c>
+      <c r="F143" s="7">
+        <v>3</v>
+      </c>
+      <c r="G143" s="7">
+        <v>3</v>
+      </c>
+      <c r="H143" s="2">
+        <v>2</v>
+      </c>
+      <c r="I143" s="2">
+        <v>2</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2</v>
+      </c>
+      <c r="K143" s="7">
+        <v>3</v>
+      </c>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="24"/>
+      <c r="O143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X143" s="7"/>
+      <c r="Y143" s="7"/>
+      <c r="Z143" s="7"/>
+      <c r="AA143" s="7"/>
+      <c r="AB143" s="7"/>
+      <c r="AC143" s="7"/>
+      <c r="AD143" s="7"/>
+      <c r="AE143" s="13"/>
+      <c r="AF143" s="13"/>
+      <c r="AG143" s="13"/>
+      <c r="AH143" s="13"/>
+      <c r="AI143" s="13"/>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="11">
+        <v>5</v>
+      </c>
+      <c r="D144" s="7">
+        <v>4</v>
+      </c>
+      <c r="E144" s="7">
+        <v>4</v>
+      </c>
+      <c r="F144" s="7">
+        <v>4</v>
+      </c>
+      <c r="G144" s="7">
+        <v>4</v>
+      </c>
+      <c r="H144" s="7">
+        <v>3</v>
+      </c>
+      <c r="I144" s="7">
+        <v>3</v>
+      </c>
+      <c r="J144" s="7">
+        <v>3</v>
+      </c>
+      <c r="K144" s="2">
+        <v>2</v>
+      </c>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O144" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P144" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q144" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R144" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S144" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T144" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U144" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V144" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="W144" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X144" s="7"/>
+      <c r="Y144" s="7"/>
+      <c r="Z144" s="7"/>
+      <c r="AA144" s="7"/>
+      <c r="AB144" s="7"/>
+      <c r="AC144" s="7"/>
+      <c r="AD144" s="7"/>
+      <c r="AE144" s="13"/>
+      <c r="AF144" s="13"/>
+      <c r="AG144" s="13"/>
+      <c r="AH144" s="13"/>
+      <c r="AI144" s="13"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="7">
+        <v>5</v>
+      </c>
+      <c r="D145" s="7">
+        <v>4</v>
+      </c>
+      <c r="E145" s="7">
+        <v>4</v>
+      </c>
+      <c r="F145" s="7">
+        <v>4</v>
+      </c>
+      <c r="G145" s="7">
+        <v>4</v>
+      </c>
+      <c r="H145" s="7">
+        <v>3</v>
+      </c>
+      <c r="I145" s="7">
+        <v>3</v>
+      </c>
+      <c r="J145" s="7">
+        <v>3</v>
+      </c>
+      <c r="K145" s="2">
+        <v>2</v>
+      </c>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="7"/>
+      <c r="T145" s="7"/>
+      <c r="U145" s="7"/>
+      <c r="V145" s="7"/>
+      <c r="W145" s="7"/>
+      <c r="X145" s="7"/>
+      <c r="Y145" s="7"/>
+      <c r="Z145" s="7"/>
+      <c r="AA145" s="7"/>
+      <c r="AB145" s="7"/>
+      <c r="AC145" s="7"/>
+      <c r="AD145" s="7"/>
+      <c r="AE145" s="13"/>
+      <c r="AF145" s="13"/>
+      <c r="AG145" s="13"/>
+      <c r="AH145" s="13"/>
+      <c r="AI145" s="13"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="7"/>
+      <c r="Y146" s="7"/>
+      <c r="Z146" s="7"/>
+      <c r="AA146" s="7"/>
+      <c r="AB146" s="7"/>
+      <c r="AC146" s="7"/>
+      <c r="AD146" s="13"/>
+      <c r="AE146" s="13"/>
+      <c r="AF146" s="13"/>
+      <c r="AG146" s="13"/>
+      <c r="AH146" s="13"/>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="7"/>
+      <c r="AA147" s="7"/>
+      <c r="AB147" s="7"/>
+      <c r="AC147" s="7"/>
+      <c r="AD147" s="13"/>
+      <c r="AE147" s="13"/>
+      <c r="AF147" s="13"/>
+      <c r="AG147" s="13"/>
+      <c r="AH147" s="13"/>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="7"/>
+      <c r="T148" s="7"/>
+      <c r="U148" s="7"/>
+      <c r="V148" s="7"/>
+      <c r="W148" s="7"/>
+      <c r="X148" s="7"/>
+      <c r="Y148" s="7"/>
+      <c r="Z148" s="7"/>
+      <c r="AA148" s="7"/>
+      <c r="AB148" s="7"/>
+      <c r="AC148" s="7"/>
+      <c r="AD148" s="13"/>
+      <c r="AE148" s="13"/>
+      <c r="AF148" s="13"/>
+      <c r="AG148" s="13"/>
+      <c r="AH148" s="13"/>
+    </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7"/>
+      <c r="S149" s="7"/>
+      <c r="T149" s="7"/>
+      <c r="U149" s="7"/>
+      <c r="V149" s="7"/>
+      <c r="W149" s="7"/>
+      <c r="X149" s="7"/>
+      <c r="Y149" s="7"/>
+      <c r="Z149" s="7"/>
+      <c r="AA149" s="7"/>
+      <c r="AB149" s="7"/>
+      <c r="AC149" s="7"/>
+      <c r="AD149" s="13"/>
+      <c r="AE149" s="13"/>
+      <c r="AF149" s="13"/>
+      <c r="AG149" s="13"/>
+      <c r="AH149" s="13"/>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
+      <c r="S150" s="7"/>
+      <c r="T150" s="7"/>
+      <c r="U150" s="7"/>
+      <c r="V150" s="7"/>
+      <c r="W150" s="7"/>
+      <c r="X150" s="7"/>
+      <c r="Y150" s="7"/>
+      <c r="Z150" s="7"/>
+      <c r="AA150" s="7"/>
+      <c r="AB150" s="7"/>
+      <c r="AC150" s="7"/>
+      <c r="AD150" s="13"/>
+      <c r="AE150" s="13"/>
+      <c r="AF150" s="13"/>
+      <c r="AG150" s="13"/>
+      <c r="AH150" s="13"/>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="7"/>
+      <c r="T151" s="7"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="7"/>
+      <c r="W151" s="7"/>
+      <c r="X151" s="7"/>
+      <c r="Y151" s="7"/>
+      <c r="Z151" s="7"/>
+      <c r="AA151" s="7"/>
+      <c r="AB151" s="7"/>
+      <c r="AC151" s="7"/>
+      <c r="AD151" s="7"/>
+      <c r="AE151" s="13"/>
+      <c r="AF151" s="13"/>
+      <c r="AG151" s="13"/>
+      <c r="AH151" s="13"/>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="7"/>
+      <c r="T152" s="7"/>
+      <c r="U152" s="7"/>
+      <c r="V152" s="7"/>
+      <c r="W152" s="7"/>
+      <c r="X152" s="7"/>
+      <c r="Y152" s="7"/>
+      <c r="Z152" s="7"/>
+      <c r="AA152" s="7"/>
+      <c r="AB152" s="7"/>
+      <c r="AC152" s="7"/>
+      <c r="AD152" s="7"/>
+      <c r="AE152" s="7"/>
+      <c r="AF152" s="13"/>
+      <c r="AG152" s="13"/>
+      <c r="AH152" s="13"/>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="17"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7"/>
+      <c r="T153" s="7"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="7"/>
+      <c r="Y153" s="7"/>
+      <c r="Z153" s="7"/>
+      <c r="AA153" s="7"/>
+      <c r="AB153" s="7"/>
+      <c r="AC153" s="7"/>
+      <c r="AD153" s="7"/>
+      <c r="AE153" s="7"/>
+      <c r="AF153" s="13"/>
+      <c r="AG153" s="13"/>
+      <c r="AH153" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N141:N143"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="11.42578125" style="29"/>
+    <col min="10" max="10" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="11.42578125" style="29"/>
+    <col min="20" max="20" width="13.140625" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4</v>
+      </c>
+      <c r="K24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="11">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7">
+        <v>4</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/pp/tracesV2/AnalyseAlgoLevenshtein.xlsx
+++ b/pp/tracesV2/AnalyseAlgoLevenshtein.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="4380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="115">
   <si>
     <t>v</t>
   </si>
@@ -2432,89 +2433,95 @@
     <t>*A[[*AB]C]</t>
   </si>
   <si>
-    <t>Principe : Action x- et tête de la pile son complément =&gt; chercher dans la pile le premier "x" ou "d", noté REF. Si on en trouve un, mettre tout ce qui est entre REF et la tête de la pile comme optionnel. Si on n'en trouve pas noter tous les prochains ajouts comme optionnel tant que cette tête de pile n'a pas été traitée (Attention il est possible que d'autres imbrications soient empilées par dessus, c'est donc vraiment cette action qui est visée). Retirer le x de la pile (ce n'est donc pas la tête).</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*ABC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
+    <t>Principe : Action x- et tête de la pile son complément =&gt; chercher dans la pile le premier "x" ou "d", noté REF. Mettre tout ce qui est entre REF et la tête de la pile comme optionnel. Noter la tête de pile comme "altérée", tant que cette action altérée se trouve en tête de pile toute nouvelle insertion dans le vecteur de fusion sera noté optionnelle. Retirer le REF de la pile (ce n'est donc pas la tête) si REF est un d remplacer le d par le complément de x.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A[*D*E]BC</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2741,6 +2748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3023,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI148"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
@@ -7215,6 +7223,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="40">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40">
+        <v>2</v>
+      </c>
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="40">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="40">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -12002,11 +12281,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -12484,7 +12763,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -12908,7 +13187,7 @@
         <v>105</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
